--- a/events.xlsx
+++ b/events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -499,6 +499,33 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>interactive group</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pkklyblf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/25/23</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
